--- a/Data/g19.2.xlsx
+++ b/Data/g19.2.xlsx
@@ -16,10 +16,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -58,12 +55,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -460,8 +456,10 @@
           <t>Brasil</t>
         </is>
       </c>
-      <c r="B2" s="2" t="n">
-        <v>40544</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>01/01/2011</t>
+        </is>
       </c>
       <c r="C2" t="n">
         <v>47215</v>
@@ -473,8 +471,10 @@
           <t>Brasil</t>
         </is>
       </c>
-      <c r="B3" s="2" t="n">
-        <v>40909</v>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>01/01/2012</t>
+        </is>
       </c>
       <c r="C3" t="n">
         <v>54694</v>
@@ -486,8 +486,10 @@
           <t>Brasil</t>
         </is>
       </c>
-      <c r="B4" s="2" t="n">
-        <v>41275</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>01/01/2013</t>
+        </is>
       </c>
       <c r="C4" t="n">
         <v>55847</v>
@@ -499,8 +501,10 @@
           <t>Brasil</t>
         </is>
       </c>
-      <c r="B5" s="2" t="n">
-        <v>41640</v>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>01/01/2014</t>
+        </is>
       </c>
       <c r="C5" t="n">
         <v>59730</v>
@@ -512,8 +516,10 @@
           <t>Brasil</t>
         </is>
       </c>
-      <c r="B6" s="2" t="n">
-        <v>42005</v>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>01/01/2015</t>
+        </is>
       </c>
       <c r="C6" t="n">
         <v>58459</v>
@@ -525,8 +531,10 @@
           <t>Brasil</t>
         </is>
       </c>
-      <c r="B7" s="2" t="n">
-        <v>42370</v>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>01/01/2016</t>
+        </is>
       </c>
       <c r="C7" t="n">
         <v>61597</v>
@@ -538,8 +546,10 @@
           <t>Brasil</t>
         </is>
       </c>
-      <c r="B8" s="2" t="n">
-        <v>42736</v>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>01/01/2017</t>
+        </is>
       </c>
       <c r="C8" t="n">
         <v>64078</v>
@@ -551,8 +561,10 @@
           <t>Brasil</t>
         </is>
       </c>
-      <c r="B9" s="2" t="n">
-        <v>43101</v>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>01/01/2018</t>
+        </is>
       </c>
       <c r="C9" t="n">
         <v>57592</v>
@@ -564,8 +576,10 @@
           <t>Brasil</t>
         </is>
       </c>
-      <c r="B10" s="2" t="n">
-        <v>43466</v>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>01/01/2019</t>
+        </is>
       </c>
       <c r="C10" t="n">
         <v>47765</v>
@@ -577,8 +591,10 @@
           <t>Brasil</t>
         </is>
       </c>
-      <c r="B11" s="2" t="n">
-        <v>43831</v>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>01/01/2020</t>
+        </is>
       </c>
       <c r="C11" t="n">
         <v>50448</v>
@@ -590,8 +606,10 @@
           <t>Brasil</t>
         </is>
       </c>
-      <c r="B12" s="2" t="n">
-        <v>44197</v>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>01/01/2021</t>
+        </is>
       </c>
       <c r="C12" t="n">
         <v>48335</v>
@@ -603,8 +621,10 @@
           <t>Brasil</t>
         </is>
       </c>
-      <c r="B13" s="2" t="n">
-        <v>44562</v>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>01/01/2022</t>
+        </is>
       </c>
       <c r="C13" t="n">
         <v>47398</v>
@@ -616,8 +636,10 @@
           <t>Região Nordeste</t>
         </is>
       </c>
-      <c r="B14" s="2" t="n">
-        <v>40544</v>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>01/01/2011</t>
+        </is>
       </c>
       <c r="C14" t="n">
         <v>19934</v>
@@ -629,8 +651,10 @@
           <t>Região Nordeste</t>
         </is>
       </c>
-      <c r="B15" s="2" t="n">
-        <v>40909</v>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>01/01/2012</t>
+        </is>
       </c>
       <c r="C15" t="n">
         <v>20724</v>
@@ -642,8 +666,10 @@
           <t>Região Nordeste</t>
         </is>
       </c>
-      <c r="B16" s="2" t="n">
-        <v>41275</v>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>01/01/2013</t>
+        </is>
       </c>
       <c r="C16" t="n">
         <v>22274</v>
@@ -655,8 +681,10 @@
           <t>Região Nordeste</t>
         </is>
       </c>
-      <c r="B17" s="2" t="n">
-        <v>41640</v>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>01/01/2014</t>
+        </is>
       </c>
       <c r="C17" t="n">
         <v>23737</v>
@@ -668,8 +696,10 @@
           <t>Região Nordeste</t>
         </is>
       </c>
-      <c r="B18" s="2" t="n">
-        <v>42005</v>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>01/01/2015</t>
+        </is>
       </c>
       <c r="C18" t="n">
         <v>23500</v>
@@ -681,8 +711,10 @@
           <t>Região Nordeste</t>
         </is>
       </c>
-      <c r="B19" s="2" t="n">
-        <v>42370</v>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>01/01/2016</t>
+        </is>
       </c>
       <c r="C19" t="n">
         <v>24814</v>
@@ -694,8 +726,10 @@
           <t>Região Nordeste</t>
         </is>
       </c>
-      <c r="B20" s="2" t="n">
-        <v>42736</v>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>01/01/2017</t>
+        </is>
       </c>
       <c r="C20" t="n">
         <v>27288</v>
@@ -707,8 +741,10 @@
           <t>Região Nordeste</t>
         </is>
       </c>
-      <c r="B21" s="2" t="n">
-        <v>43101</v>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>01/01/2018</t>
+        </is>
       </c>
       <c r="C21" t="n">
         <v>23474</v>
@@ -720,8 +756,10 @@
           <t>Região Nordeste</t>
         </is>
       </c>
-      <c r="B22" s="2" t="n">
-        <v>43466</v>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>01/01/2019</t>
+        </is>
       </c>
       <c r="C22" t="n">
         <v>18190</v>
@@ -733,8 +771,10 @@
           <t>Região Nordeste</t>
         </is>
       </c>
-      <c r="B23" s="2" t="n">
-        <v>43831</v>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>01/01/2020</t>
+        </is>
       </c>
       <c r="C23" t="n">
         <v>22147</v>
@@ -746,8 +786,10 @@
           <t>Região Nordeste</t>
         </is>
       </c>
-      <c r="B24" s="2" t="n">
-        <v>44197</v>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>01/01/2021</t>
+        </is>
       </c>
       <c r="C24" t="n">
         <v>21011</v>
@@ -759,8 +801,10 @@
           <t>Região Nordeste</t>
         </is>
       </c>
-      <c r="B25" s="2" t="n">
-        <v>44562</v>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>01/01/2022</t>
+        </is>
       </c>
       <c r="C25" t="n">
         <v>20122</v>
@@ -772,8 +816,10 @@
           <t>Sergipe</t>
         </is>
       </c>
-      <c r="B26" s="2" t="n">
-        <v>40544</v>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>01/01/2011</t>
+        </is>
       </c>
       <c r="C26" t="n">
         <v>712</v>
@@ -785,8 +831,10 @@
           <t>Sergipe</t>
         </is>
       </c>
-      <c r="B27" s="2" t="n">
-        <v>40909</v>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>01/01/2012</t>
+        </is>
       </c>
       <c r="C27" t="n">
         <v>845</v>
@@ -798,8 +846,10 @@
           <t>Sergipe</t>
         </is>
       </c>
-      <c r="B28" s="2" t="n">
-        <v>41275</v>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>01/01/2013</t>
+        </is>
       </c>
       <c r="C28" t="n">
         <v>952</v>
@@ -811,8 +861,10 @@
           <t>Sergipe</t>
         </is>
       </c>
-      <c r="B29" s="2" t="n">
-        <v>41640</v>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>01/01/2014</t>
+        </is>
       </c>
       <c r="C29" t="n">
         <v>1077</v>
@@ -824,8 +876,10 @@
           <t>Sergipe</t>
         </is>
       </c>
-      <c r="B30" s="2" t="n">
-        <v>42005</v>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>01/01/2015</t>
+        </is>
       </c>
       <c r="C30" t="n">
         <v>1286</v>
@@ -837,8 +891,10 @@
           <t>Sergipe</t>
         </is>
       </c>
-      <c r="B31" s="2" t="n">
-        <v>42370</v>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>01/01/2016</t>
+        </is>
       </c>
       <c r="C31" t="n">
         <v>1450</v>
@@ -850,8 +906,10 @@
           <t>Sergipe</t>
         </is>
       </c>
-      <c r="B32" s="2" t="n">
-        <v>42736</v>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>01/01/2017</t>
+        </is>
       </c>
       <c r="C32" t="n">
         <v>1275</v>
@@ -863,8 +921,10 @@
           <t>Sergipe</t>
         </is>
       </c>
-      <c r="B33" s="2" t="n">
-        <v>43101</v>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>01/01/2018</t>
+        </is>
       </c>
       <c r="C33" t="n">
         <v>1130</v>
@@ -876,8 +936,10 @@
           <t>Sergipe</t>
         </is>
       </c>
-      <c r="B34" s="2" t="n">
-        <v>43466</v>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>01/01/2019</t>
+        </is>
       </c>
       <c r="C34" t="n">
         <v>967</v>
@@ -889,8 +951,10 @@
           <t>Sergipe</t>
         </is>
       </c>
-      <c r="B35" s="2" t="n">
-        <v>43831</v>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>01/01/2020</t>
+        </is>
       </c>
       <c r="C35" t="n">
         <v>988</v>
@@ -902,8 +966,10 @@
           <t>Sergipe</t>
         </is>
       </c>
-      <c r="B36" s="2" t="n">
-        <v>44197</v>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>01/01/2021</t>
+        </is>
       </c>
       <c r="C36" t="n">
         <v>795</v>
@@ -915,8 +981,10 @@
           <t>Sergipe</t>
         </is>
       </c>
-      <c r="B37" s="2" t="n">
-        <v>44562</v>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>01/01/2022</t>
+        </is>
       </c>
       <c r="C37" t="n">
         <v>768</v>

--- a/Data/g19.2.xlsx
+++ b/Data/g19.2.xlsx
@@ -1,43 +1,46 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -45,94 +48,21 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -420,20 +350,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C37"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
+    <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
           <t>Região</t>
@@ -441,10 +365,15 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Variável</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Ano</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Valor</t>
         </is>
@@ -458,11 +387,16 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>01/01/2011</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>47215</v>
+          <t>Taxa de mortes violentas intencionais</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>31/12/2011</t>
+        </is>
+      </c>
+      <c r="D2">
+        <v>24.5426629531068</v>
       </c>
     </row>
     <row r="3">
@@ -473,11 +407,16 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>01/01/2012</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>54694</v>
+          <t>Taxa de mortes violentas intencionais</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>31/12/2012</t>
+        </is>
+      </c>
+      <c r="D3">
+        <v>28.19619466334406</v>
       </c>
     </row>
     <row r="4">
@@ -488,11 +427,16 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>01/01/2013</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>55847</v>
+          <t>Taxa de mortes violentas intencionais</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>31/12/2013</t>
+        </is>
+      </c>
+      <c r="D4">
+        <v>27.77590039298619</v>
       </c>
     </row>
     <row r="5">
@@ -503,11 +447,16 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>01/01/2014</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>59730</v>
+          <t>Taxa de mortes violentas intencionais</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>31/12/2014</t>
+        </is>
+      </c>
+      <c r="D5">
+        <v>29.45273272296436</v>
       </c>
     </row>
     <row r="6">
@@ -518,11 +467,16 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>01/01/2015</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>58459</v>
+          <t>Taxa de mortes violentas intencionais</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>31/12/2015</t>
+        </is>
+      </c>
+      <c r="D6">
+        <v>28.58876027111939</v>
       </c>
     </row>
     <row r="7">
@@ -533,11 +487,16 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>01/01/2016</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>61597</v>
+          <t>Taxa de mortes violentas intencionais</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>31/12/2016</t>
+        </is>
+      </c>
+      <c r="D7">
+        <v>29.88490834058405</v>
       </c>
     </row>
     <row r="8">
@@ -548,11 +507,16 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>01/01/2017</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>64078</v>
+          <t>Taxa de mortes violentas intencionais</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>31/12/2017</t>
+        </is>
+      </c>
+      <c r="D8">
+        <v>30.85703233081463</v>
       </c>
     </row>
     <row r="9">
@@ -563,11 +527,16 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>01/01/2018</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>57592</v>
+          <t>Taxa de mortes violentas intencionais</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>31/12/2018</t>
+        </is>
+      </c>
+      <c r="D9">
+        <v>27.62273801421522</v>
       </c>
     </row>
     <row r="10">
@@ -578,11 +547,16 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>01/01/2019</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>47765</v>
+          <t>Taxa de mortes violentas intencionais</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>31/12/2019</t>
+        </is>
+      </c>
+      <c r="D10">
+        <v>22.71836933291378</v>
       </c>
     </row>
     <row r="11">
@@ -593,11 +567,16 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>01/01/2020</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>50448</v>
+          <t>Taxa de mortes violentas intencionais</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>31/12/2020</t>
+        </is>
+      </c>
+      <c r="D11">
+        <v>23.82368073487253</v>
       </c>
     </row>
     <row r="12">
@@ -608,389 +587,239 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>01/01/2021</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>48335</v>
+          <t>Taxa de mortes violentas intencionais</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>31/12/2021</t>
+        </is>
+      </c>
+      <c r="D12">
+        <v>22.268669493384</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Brasil</t>
+          <t>Sergipe</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>01/01/2022</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>47398</v>
+          <t>Taxa de mortes violentas intencionais</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>31/12/2011</t>
+        </is>
+      </c>
+      <c r="D13">
+        <v>34.06993620021638</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Região Nordeste</t>
+          <t>Sergipe</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>01/01/2011</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>19934</v>
+          <t>Taxa de mortes violentas intencionais</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>31/12/2012</t>
+        </is>
+      </c>
+      <c r="D14">
+        <v>40.0309446308081</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Região Nordeste</t>
+          <t>Sergipe</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>01/01/2012</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>20724</v>
+          <t>Taxa de mortes violentas intencionais</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>31/12/2013</t>
+        </is>
+      </c>
+      <c r="D15">
+        <v>43.35822180280936</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Região Nordeste</t>
+          <t>Sergipe</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>01/01/2013</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>22274</v>
+          <t>Taxa de mortes violentas intencionais</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>31/12/2014</t>
+        </is>
+      </c>
+      <c r="D16">
+        <v>48.52282465013557</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Região Nordeste</t>
+          <t>Sergipe</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>01/01/2014</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>23737</v>
+          <t>Taxa de mortes violentas intencionais</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>31/12/2015</t>
+        </is>
+      </c>
+      <c r="D17">
+        <v>57.33553818051956</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Região Nordeste</t>
+          <t>Sergipe</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>01/01/2015</t>
-        </is>
-      </c>
-      <c r="C18" t="n">
-        <v>23500</v>
+          <t>Taxa de mortes violentas intencionais</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>31/12/2016</t>
+        </is>
+      </c>
+      <c r="D18">
+        <v>63.99565006119308</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Região Nordeste</t>
+          <t>Sergipe</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>01/01/2016</t>
-        </is>
-      </c>
-      <c r="C19" t="n">
-        <v>24814</v>
+          <t>Taxa de mortes violentas intencionais</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>31/12/2017</t>
+        </is>
+      </c>
+      <c r="D19">
+        <v>55.72269937363316</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Região Nordeste</t>
+          <t>Sergipe</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>01/01/2017</t>
-        </is>
-      </c>
-      <c r="C20" t="n">
-        <v>27288</v>
+          <t>Taxa de mortes violentas intencionais</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>31/12/2018</t>
+        </is>
+      </c>
+      <c r="D20">
+        <v>49.59821060190281</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Região Nordeste</t>
+          <t>Sergipe</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>01/01/2018</t>
-        </is>
-      </c>
-      <c r="C21" t="n">
-        <v>23474</v>
+          <t>Taxa de mortes violentas intencionais</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>31/12/2019</t>
+        </is>
+      </c>
+      <c r="D21">
+        <v>42.06732860717555</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Região Nordeste</t>
+          <t>Sergipe</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>01/01/2019</t>
-        </is>
-      </c>
-      <c r="C22" t="n">
-        <v>18190</v>
+          <t>Taxa de mortes violentas intencionais</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>31/12/2020</t>
+        </is>
+      </c>
+      <c r="D22">
+        <v>42.60784139532918</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Região Nordeste</t>
+          <t>Sergipe</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>01/01/2020</t>
-        </is>
-      </c>
-      <c r="C23" t="n">
-        <v>22147</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>Região Nordeste</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>01/01/2021</t>
-        </is>
-      </c>
-      <c r="C24" t="n">
-        <v>21011</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>Região Nordeste</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>01/01/2022</t>
-        </is>
-      </c>
-      <c r="C25" t="n">
-        <v>20122</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>Sergipe</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>01/01/2011</t>
-        </is>
-      </c>
-      <c r="C26" t="n">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>Sergipe</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>01/01/2012</t>
-        </is>
-      </c>
-      <c r="C27" t="n">
-        <v>845</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>Sergipe</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>01/01/2013</t>
-        </is>
-      </c>
-      <c r="C28" t="n">
-        <v>952</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>Sergipe</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>01/01/2014</t>
-        </is>
-      </c>
-      <c r="C29" t="n">
-        <v>1077</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>Sergipe</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>01/01/2015</t>
-        </is>
-      </c>
-      <c r="C30" t="n">
-        <v>1286</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>Sergipe</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>01/01/2016</t>
-        </is>
-      </c>
-      <c r="C31" t="n">
-        <v>1450</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>Sergipe</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>01/01/2017</t>
-        </is>
-      </c>
-      <c r="C32" t="n">
-        <v>1275</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>Sergipe</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>01/01/2018</t>
-        </is>
-      </c>
-      <c r="C33" t="n">
-        <v>1130</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>Sergipe</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>01/01/2019</t>
-        </is>
-      </c>
-      <c r="C34" t="n">
-        <v>967</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>Sergipe</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>01/01/2020</t>
-        </is>
-      </c>
-      <c r="C35" t="n">
-        <v>988</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>Sergipe</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>01/01/2021</t>
-        </is>
-      </c>
-      <c r="C36" t="n">
-        <v>795</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>Sergipe</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>01/01/2022</t>
-        </is>
-      </c>
-      <c r="C37" t="n">
-        <v>768</v>
+          <t>Taxa de mortes violentas intencionais</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>31/12/2021</t>
+        </is>
+      </c>
+      <c r="D23">
+        <v>33.86824057056011</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Data/g19.2.xlsx
+++ b/Data/g19.2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Wagner Nobrega\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{503D4551-9CD7-4D61-8272-AF462CF9B5C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72F98F76-F675-4924-846A-ECA4A2ED5B99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="16">
   <si>
     <t>Região</t>
   </si>
@@ -37,21 +37,6 @@
     <t>Brasil</t>
   </si>
   <si>
-    <t>Taxa de mortes violentas intencionais</t>
-  </si>
-  <si>
-    <t>31/12/2011</t>
-  </si>
-  <si>
-    <t>31/12/2012</t>
-  </si>
-  <si>
-    <t>31/12/2013</t>
-  </si>
-  <si>
-    <t>31/12/2014</t>
-  </si>
-  <si>
     <t>31/12/2015</t>
   </si>
   <si>
@@ -80,13 +65,16 @@
   </si>
   <si>
     <t>31/12/2022</t>
+  </si>
+  <si>
+    <t>Taxa de homicídios dolosos</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -108,6 +96,18 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -117,7 +117,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -125,18 +125,39 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="22"/>
+      </left>
+      <right style="thin">
+        <color indexed="22"/>
+      </right>
+      <top style="thin">
+        <color indexed="22"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="22"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal_Sheet1" xfId="1" xr:uid="{17A5CDC2-0D68-4902-9ED9-F5EE7D17BE22}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -438,14 +459,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G37"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="35.7109375" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" customWidth="1"/>
+    <col min="2" max="2" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -469,13 +492,13 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2">
-        <v>24.015312181357778</v>
+      <c r="D2" s="2">
+        <v>29.525832190143728</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -483,13 +506,13 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3">
-        <v>27.57936525345086</v>
+        <v>15</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="2">
+        <v>31.197209615895353</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -497,13 +520,13 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4">
-        <v>27.922915294153739</v>
+        <v>15</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="2">
+        <v>30.470594795404189</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -511,13 +534,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5">
-        <v>29.610711941010621</v>
+        <v>15</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="2">
+        <v>28.426443523949459</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -525,13 +548,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6">
-        <v>28.730214410927914</v>
+        <v>15</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="2">
+        <v>22.279566535481734</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -539,13 +562,13 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7">
-        <v>30.0243832775401</v>
+        <v>15</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="2">
+        <v>23.479655684885444</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -553,13 +576,13 @@
         <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8">
-        <v>30.984782887545116</v>
+        <v>15</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="2">
+        <v>22.097866227147907</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -567,405 +590,237 @@
         <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9">
-        <v>27.622738014215216</v>
+        <v>15</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="2">
+        <v>21.465212679835261</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="B10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10">
-        <v>22.729314046052259</v>
+      <c r="D10" s="2">
+        <v>53.955122511060573</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11">
-        <v>23.823680734872525</v>
+        <v>15</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="2">
+        <v>58.378316523119778</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" t="s">
-        <v>16</v>
-      </c>
-      <c r="D12">
-        <v>22.658698186698008</v>
+        <v>15</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="2">
+        <v>49.661847562493747</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" t="s">
-        <v>19</v>
-      </c>
-      <c r="D13">
-        <v>22.063176522076628</v>
+        <v>15</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="2">
+        <v>41.522041795929255</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" t="s">
-        <v>6</v>
-      </c>
-      <c r="D14">
-        <v>33.420326317568197</v>
+        <v>15</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="2">
+        <v>33.842242949025227</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>5</v>
-      </c>
-      <c r="C15" t="s">
-        <v>7</v>
-      </c>
-      <c r="D15">
-        <v>39.259797177847808</v>
+        <v>15</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="2">
+        <v>32.815416087401985</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B16" t="s">
-        <v>5</v>
-      </c>
-      <c r="C16" t="s">
-        <v>8</v>
-      </c>
-      <c r="D16">
-        <v>43.797662161764272</v>
+        <v>15</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" s="2">
+        <v>23.859531498002298</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B17" t="s">
-        <v>5</v>
-      </c>
-      <c r="C17" t="s">
-        <v>9</v>
-      </c>
-      <c r="D17">
-        <v>49.065723924437876</v>
+        <v>15</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" s="2">
+        <v>24.683608726631157</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B18" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C18" t="s">
-        <v>10</v>
-      </c>
-      <c r="D18">
-        <v>58.015290592996571</v>
+      <c r="D18" s="2">
+        <v>38.474577564856929</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B19" t="s">
-        <v>5</v>
-      </c>
-      <c r="C19" t="s">
-        <v>11</v>
-      </c>
-      <c r="D19">
-        <v>64.815129370998221</v>
+        <v>15</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" s="2">
+        <v>40.24775487372132</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B20" t="s">
-        <v>5</v>
-      </c>
-      <c r="C20" t="s">
-        <v>12</v>
-      </c>
-      <c r="D20">
-        <v>56.484260162515184</v>
+        <v>15</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" s="2">
+        <v>41.457380123782393</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B21" t="s">
-        <v>5</v>
-      </c>
-      <c r="C21" t="s">
-        <v>13</v>
-      </c>
-      <c r="D21">
-        <v>49.598210601902814</v>
+        <v>15</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D21" s="2">
+        <v>34.739986758270206</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B22" t="s">
-        <v>5</v>
-      </c>
-      <c r="C22" t="s">
-        <v>14</v>
-      </c>
-      <c r="D22">
-        <v>42.063559038184316</v>
+        <v>15</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" s="2">
+        <v>26.846454581728537</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B23" t="s">
-        <v>5</v>
-      </c>
-      <c r="C23" t="s">
-        <v>15</v>
-      </c>
-      <c r="D23">
-        <v>42.603983041199946</v>
+        <v>15</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D23" s="2">
+        <v>31.780058084996945</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B24" t="s">
-        <v>5</v>
-      </c>
-      <c r="C24" t="s">
-        <v>16</v>
-      </c>
-      <c r="D24">
-        <v>33.993418532100044</v>
+        <v>15</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D24" s="2">
+        <v>28.712187639851347</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B25" t="s">
-        <v>5</v>
-      </c>
-      <c r="C25" t="s">
-        <v>19</v>
-      </c>
-      <c r="D25">
-        <v>32.572184711430801</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>18</v>
-      </c>
-      <c r="B26" t="s">
-        <v>5</v>
-      </c>
-      <c r="C26" t="s">
-        <v>6</v>
-      </c>
-      <c r="D26">
-        <v>36.541160471659239</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>18</v>
-      </c>
-      <c r="B27" t="s">
-        <v>5</v>
-      </c>
-      <c r="C27" t="s">
-        <v>7</v>
-      </c>
-      <c r="D27">
-        <v>37.763234287996305</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>18</v>
-      </c>
-      <c r="B28" t="s">
-        <v>5</v>
-      </c>
-      <c r="C28" t="s">
-        <v>8</v>
-      </c>
-      <c r="D28">
-        <v>40.359803462216647</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>18</v>
-      </c>
-      <c r="B29" t="s">
-        <v>5</v>
-      </c>
-      <c r="C29" t="s">
-        <v>9</v>
-      </c>
-      <c r="D29">
-        <v>42.768737470905833</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>18</v>
-      </c>
-      <c r="B30" t="s">
-        <v>5</v>
-      </c>
-      <c r="C30" t="s">
-        <v>10</v>
-      </c>
-      <c r="D30">
-        <v>42.093426844507995</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>18</v>
-      </c>
-      <c r="B31" t="s">
-        <v>5</v>
-      </c>
-      <c r="C31" t="s">
-        <v>11</v>
-      </c>
-      <c r="D31">
-        <v>44.201386891102025</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>18</v>
-      </c>
-      <c r="B32" t="s">
-        <v>5</v>
-      </c>
-      <c r="C32" t="s">
-        <v>12</v>
-      </c>
-      <c r="D32">
-        <v>48.346848026640522</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>18</v>
-      </c>
-      <c r="B33" t="s">
-        <v>5</v>
-      </c>
-      <c r="C33" t="s">
-        <v>13</v>
-      </c>
-      <c r="D33">
-        <v>41.356020829875838</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>18</v>
-      </c>
-      <c r="B34" t="s">
-        <v>5</v>
-      </c>
-      <c r="C34" t="s">
+        <v>15</v>
+      </c>
+      <c r="C25" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D34">
-        <v>31.872214532279017</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>18</v>
-      </c>
-      <c r="B35" t="s">
-        <v>5</v>
-      </c>
-      <c r="C35" t="s">
-        <v>15</v>
-      </c>
-      <c r="D35">
-        <v>38.600945026847675</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>18</v>
-      </c>
-      <c r="B36" t="s">
-        <v>5</v>
-      </c>
-      <c r="C36" t="s">
-        <v>16</v>
-      </c>
-      <c r="D36">
-        <v>36.434517525382695</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>18</v>
-      </c>
-      <c r="B37" t="s">
-        <v>5</v>
-      </c>
-      <c r="C37" t="s">
-        <v>19</v>
-      </c>
-      <c r="D37">
-        <v>34.722239597913635</v>
+      <c r="D25" s="2">
+        <v>27.684652264915766</v>
       </c>
     </row>
   </sheetData>

--- a/Data/g19.2.xlsx
+++ b/Data/g19.2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Wagner Nobrega\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58D2F44B-CDCA-49FA-8C11-16F193CD2624}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF19026A-C72F-46CB-A630-141F134ECD91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="13">
   <si>
     <t>Região</t>
   </si>
@@ -44,6 +44,21 @@
   </si>
   <si>
     <t>NE</t>
+  </si>
+  <si>
+    <t>31/12/2018</t>
+  </si>
+  <si>
+    <t>31/12/2019</t>
+  </si>
+  <si>
+    <t>31/12/2021</t>
+  </si>
+  <si>
+    <t>31/12/2022</t>
+  </si>
+  <si>
+    <t>31/12/2023</t>
   </si>
 </sst>
 </file>
@@ -100,11 +115,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -410,7 +426,7 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D16"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -436,8 +452,8 @@
       <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="C2">
-        <v>2018</v>
+      <c r="C2" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="D2">
         <v>41.478149574157669</v>
@@ -450,8 +466,8 @@
       <c r="B3" t="s">
         <v>5</v>
       </c>
-      <c r="C3">
-        <v>2019</v>
+      <c r="C3" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="D3">
         <v>33.972740029805536</v>
@@ -464,8 +480,8 @@
       <c r="B4" t="s">
         <v>5</v>
       </c>
-      <c r="C4">
-        <v>2021</v>
+      <c r="C4" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="D4">
         <v>23.175387225658547</v>
@@ -478,8 +494,8 @@
       <c r="B5" t="s">
         <v>5</v>
       </c>
-      <c r="C5">
-        <v>2022</v>
+      <c r="C5" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="D5">
         <v>23.750551352085132</v>
@@ -492,8 +508,8 @@
       <c r="B6" t="s">
         <v>5</v>
       </c>
-      <c r="C6">
-        <v>2023</v>
+      <c r="C6" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="D6">
         <v>18.220477881476292</v>
@@ -506,8 +522,8 @@
       <c r="B7" t="s">
         <v>5</v>
       </c>
-      <c r="C7">
-        <v>2018</v>
+      <c r="C7" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="D7">
         <v>29.211749955484063</v>
@@ -520,8 +536,8 @@
       <c r="B8" t="s">
         <v>5</v>
       </c>
-      <c r="C8">
-        <v>2019</v>
+      <c r="C8" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="D8">
         <v>22.506496165257548</v>
@@ -534,8 +550,8 @@
       <c r="B9" t="s">
         <v>5</v>
       </c>
-      <c r="C9">
-        <v>2021</v>
+      <c r="C9" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="D9">
         <v>22.515177806998715</v>
@@ -548,8 +564,8 @@
       <c r="B10" t="s">
         <v>5</v>
       </c>
-      <c r="C10">
-        <v>2022</v>
+      <c r="C10" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="D10">
         <v>21.824289962893403</v>
@@ -562,8 +578,8 @@
       <c r="B11" t="s">
         <v>5</v>
       </c>
-      <c r="C11">
-        <v>2023</v>
+      <c r="C11" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="D11">
         <v>20.758449090758884</v>
@@ -576,8 +592,8 @@
       <c r="B12" t="s">
         <v>5</v>
       </c>
-      <c r="C12">
-        <v>2018</v>
+      <c r="C12" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="D12">
         <v>35.537044191902481</v>
@@ -590,8 +606,8 @@
       <c r="B13" t="s">
         <v>5</v>
       </c>
-      <c r="C13">
-        <v>2019</v>
+      <c r="C13" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="D13">
         <v>26.926031992536714</v>
@@ -604,8 +620,8 @@
       <c r="B14" t="s">
         <v>5</v>
       </c>
-      <c r="C14">
-        <v>2021</v>
+      <c r="C14" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="D14">
         <v>28.512071018162356</v>
@@ -618,8 +634,8 @@
       <c r="B15" t="s">
         <v>5</v>
       </c>
-      <c r="C15">
-        <v>2022</v>
+      <c r="C15" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="D15">
         <v>27.537833471750051</v>
@@ -632,8 +648,8 @@
       <c r="B16" t="s">
         <v>5</v>
       </c>
-      <c r="C16">
-        <v>2023</v>
+      <c r="C16" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="D16">
         <v>26.071652978380218</v>

--- a/Data/g19.2.xlsx
+++ b/Data/g19.2.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E34"/>
+  <dimension ref="A1:E37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -716,7 +716,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Nordeste</t>
+          <t>Sergipe</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -726,13 +726,15 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>01/01/2012</t>
+          <t>01/01/2023</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>29.20041871335938</v>
-      </c>
-      <c r="E13" t="inlineStr"/>
+        <v>24.15370508999359</v>
+      </c>
+      <c r="E13" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -747,11 +749,11 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>01/01/2013</t>
+          <t>01/01/2012</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>31.74114891713795</v>
+        <v>29.20041871335938</v>
       </c>
       <c r="E14" t="inlineStr"/>
     </row>
@@ -768,11 +770,11 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>01/01/2014</t>
+          <t>01/01/2013</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>34.27332679665756</v>
+        <v>31.74114891713795</v>
       </c>
       <c r="E15" t="inlineStr"/>
     </row>
@@ -789,11 +791,11 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>01/01/2015</t>
+          <t>01/01/2014</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>33.66029634258743</v>
+        <v>34.27332679665756</v>
       </c>
       <c r="E16" t="inlineStr"/>
     </row>
@@ -810,11 +812,11 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>01/01/2016</t>
+          <t>01/01/2015</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>35.4867543252678</v>
+        <v>33.66029634258743</v>
       </c>
       <c r="E17" t="inlineStr"/>
     </row>
@@ -831,11 +833,11 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>01/01/2017</t>
+          <t>01/01/2016</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>38.51130339525375</v>
+        <v>35.4867543252678</v>
       </c>
       <c r="E18" t="inlineStr"/>
     </row>
@@ -852,11 +854,11 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>01/01/2018</t>
+          <t>01/01/2017</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>32.77058932668129</v>
+        <v>38.51130339525375</v>
       </c>
       <c r="E19" t="inlineStr"/>
     </row>
@@ -873,11 +875,11 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>01/01/2019</t>
+          <t>01/01/2018</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>24.01262161129501</v>
+        <v>32.77058932668129</v>
       </c>
       <c r="E20" t="inlineStr"/>
     </row>
@@ -894,11 +896,11 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>01/01/2020</t>
+          <t>01/01/2019</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>28.43211345786177</v>
+        <v>24.01262161129501</v>
       </c>
       <c r="E21" t="inlineStr"/>
     </row>
@@ -915,11 +917,11 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>01/01/2021</t>
+          <t>01/01/2020</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>26.16232601446501</v>
+        <v>28.43211345786177</v>
       </c>
       <c r="E22" t="inlineStr"/>
     </row>
@@ -936,18 +938,18 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>01/01/2022</t>
+          <t>01/01/2021</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>25.02762631333083</v>
+        <v>26.16232601446501</v>
       </c>
       <c r="E23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Brasil</t>
+          <t>Nordeste</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -957,18 +959,18 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>01/01/2012</t>
+          <t>01/01/2022</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>22.14797693939224</v>
+        <v>25.02762631333083</v>
       </c>
       <c r="E24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Brasil</t>
+          <t>Nordeste</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -978,11 +980,11 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>01/01/2013</t>
+          <t>01/01/2023</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>22.65415086408658</v>
+        <v>24.02343486356466</v>
       </c>
       <c r="E25" t="inlineStr"/>
     </row>
@@ -999,11 +1001,11 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>01/01/2014</t>
+          <t>01/01/2012</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>24.2511241603984</v>
+        <v>22.14797693939224</v>
       </c>
       <c r="E26" t="inlineStr"/>
     </row>
@@ -1020,11 +1022,11 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>01/01/2015</t>
+          <t>01/01/2013</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>23.88186267728858</v>
+        <v>22.65415086408658</v>
       </c>
       <c r="E27" t="inlineStr"/>
     </row>
@@ -1041,11 +1043,11 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>01/01/2016</t>
+          <t>01/01/2014</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>25.81746426088776</v>
+        <v>24.2511241603984</v>
       </c>
       <c r="E28" t="inlineStr"/>
     </row>
@@ -1062,11 +1064,11 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>01/01/2017</t>
+          <t>01/01/2015</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>27.33557659484235</v>
+        <v>23.88186267728858</v>
       </c>
       <c r="E29" t="inlineStr"/>
     </row>
@@ -1083,11 +1085,11 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>01/01/2018</t>
+          <t>01/01/2016</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>24.30818773974239</v>
+        <v>25.81746426088776</v>
       </c>
       <c r="E30" t="inlineStr"/>
     </row>
@@ -1104,11 +1106,11 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>01/01/2019</t>
+          <t>01/01/2017</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>18.15018913510247</v>
+        <v>27.33557659484235</v>
       </c>
       <c r="E31" t="inlineStr"/>
     </row>
@@ -1125,11 +1127,11 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>01/01/2020</t>
+          <t>01/01/2018</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>19.56801371841463</v>
+        <v>24.30818773974239</v>
       </c>
       <c r="E32" t="inlineStr"/>
     </row>
@@ -1146,11 +1148,11 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>01/01/2021</t>
+          <t>01/01/2019</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>18.91244187134871</v>
+        <v>18.15018913510247</v>
       </c>
       <c r="E33" t="inlineStr"/>
     </row>
@@ -1167,13 +1169,76 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
+          <t>01/01/2020</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>19.56801371841463</v>
+      </c>
+      <c r="E34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Brasil</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Taxa de homicídios por armas de fogo</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>01/01/2021</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>18.91244187134871</v>
+      </c>
+      <c r="E35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Brasil</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Taxa de homicídios por armas de fogo</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
           <t>01/01/2022</t>
         </is>
       </c>
-      <c r="D34" t="n">
+      <c r="D36" t="n">
         <v>18.21109771220736</v>
       </c>
-      <c r="E34" t="inlineStr"/>
+      <c r="E36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Brasil</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Taxa de homicídios por armas de fogo</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>01/01/2023</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>17.39138029111331</v>
+      </c>
+      <c r="E37" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Data/g19.2.xlsx
+++ b/Data/g19.2.xlsx
@@ -730,7 +730,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>24.15370508999359</v>
+        <v>24.06954583880895</v>
       </c>
       <c r="E13" t="n">
         <v>6</v>
@@ -984,7 +984,7 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>24.02343486356466</v>
+        <v>24.03166508169151</v>
       </c>
       <c r="E25" t="inlineStr"/>
     </row>
@@ -1236,7 +1236,7 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>17.39138029111331</v>
+        <v>17.50527618999616</v>
       </c>
       <c r="E37" t="inlineStr"/>
     </row>
